--- a/src/data/irregular_exceptions.xlsx
+++ b/src/data/irregular_exceptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Саша\PycharmProjects\RuTranscript\RuTranscript\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RuTranscript\ru_transcript\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5433A95-7B84-454F-B51F-2D6314297943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB0BC68-8674-4F50-ADFC-C852E9D7DAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>кафе</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>петербуржский</t>
+  </si>
+  <si>
+    <t>манхеттен</t>
+  </si>
+  <si>
+    <t>манхэттэн</t>
   </si>
 </sst>
 </file>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,6 +565,14 @@
         <v>27</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/data/irregular_exceptions.xlsx
+++ b/src/data/irregular_exceptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RuTranscript\ru_transcript\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB0BC68-8674-4F50-ADFC-C852E9D7DAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB2788E-607D-4B69-8315-39EB55319C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
